--- a/[2분반]2013136038_박성준_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2013136038_박성준_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136038\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,20 +125,33 @@
     <t>CL4258 대전류 악어 클립 - 빨강</t>
   </si>
   <si>
+    <t>적층형 핀헤더소켓 Single 1x40 Straight(2.54mm)</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/35611</t>
+  </si>
+  <si>
+    <t>표준 양식으로 맞춰주시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.devicemart.co.kr/1313394</t>
-  </si>
-  <si>
-    <t>적층형 핀헤더소켓 Single 1x40 Straight(2.54mm)</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/35611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점퍼선 있어서 안넣은건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +186,25 @@
       <name val="Dotum"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +215,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,18 +332,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,52 +398,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -472,6 +549,29 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -494,26 +594,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -810,9 +890,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A6:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A6:G12"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A6:H12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A6:H12"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="번호" dataDxfId="7"/>
     <tableColumn id="2" name="부품명" dataDxfId="6"/>
     <tableColumn id="3" name="단가" dataDxfId="5"/>
@@ -820,6 +900,7 @@
     <tableColumn id="5" name="가격" dataDxfId="3"/>
     <tableColumn id="6" name="링크" dataDxfId="2"/>
     <tableColumn id="7" name="사진" dataDxfId="1"/>
+    <tableColumn id="8" name="열1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1080,7 +1161,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1103,209 +1184,222 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>2013136038</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="96" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8" ht="96" customHeight="1">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>36000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>36000</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="101.25" customHeight="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:8" ht="101.25" customHeight="1">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>15600</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>15600</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="102" customHeight="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:8" ht="102" customHeight="1">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>4100</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>4100</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="91.5" customHeight="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:8" ht="91.5" customHeight="1">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>1000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>20</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>20000</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="87.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="9">
+        <v>1250</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6250</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="87.75" customHeight="1">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1250</v>
-      </c>
-      <c r="D11" s="12">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12">
-        <v>6250</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <f>SUM(E7:E11)</f>
         <v>81950</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1316,11 +1410,14 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>